--- a/PixelMap.xlsx
+++ b/PixelMap.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spaubt/Desktop/CDet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brash/CDet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA8948-ABBC-A048-8FFB-6CB40D3A54E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27546025-FDC0-AD4E-9628-390D9B2A27AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="740" windowWidth="22080" windowHeight="16660" activeTab="5" xr2:uid="{24EFF58C-A674-1E4D-AC36-D7198D8075C4}"/>
+    <workbookView xWindow="-34380" yWindow="1100" windowWidth="33320" windowHeight="19740" activeTab="5" xr2:uid="{24EFF58C-A674-1E4D-AC36-D7198D8075C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Module 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Module 2" sheetId="7" r:id="rId2"/>
-    <sheet name="Module 3" sheetId="8" r:id="rId3"/>
-    <sheet name="Module 4" sheetId="9" r:id="rId4"/>
-    <sheet name="Module 5" sheetId="10" r:id="rId5"/>
-    <sheet name="Module 6" sheetId="11" r:id="rId6"/>
+    <sheet name="Module 2 Layer 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Module 1 Layer 1" sheetId="7" r:id="rId2"/>
+    <sheet name="Module 3 Layer 1" sheetId="8" r:id="rId3"/>
+    <sheet name="Module 2 Layer 2" sheetId="9" r:id="rId4"/>
+    <sheet name="Module 1 Layer 2" sheetId="10" r:id="rId5"/>
+    <sheet name="Module 3 Layer 2" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="23">
   <si>
     <t>Physical Left Side</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PMT 15</t>
   </si>
 </sst>
 </file>
@@ -343,6 +349,18 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,19 +370,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397AC20F-72F3-704F-9CCE-C82556BC3838}">
   <dimension ref="B1:Z74"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,104 +723,88 @@
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B1" s="9"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="22"/>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="26"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="22"/>
+      <c r="L1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="20"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="26"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="22"/>
+      <c r="R1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="20"/>
       <c r="T1" s="9"/>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="26"/>
+      <c r="V1" s="19"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="22"/>
+      <c r="X1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="20"/>
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
-      <c r="C2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="25"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="23"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="25"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="23"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="25"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="23"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="26"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="25"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="22"/>
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
@@ -822,7 +812,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="6"/>
@@ -830,7 +820,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="6"/>
@@ -1625,18 +1615,18 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="10"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
@@ -1644,7 +1634,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="6"/>
@@ -1652,7 +1642,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="6"/>
@@ -2447,18 +2437,18 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39" s="11"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="11"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
@@ -2466,7 +2456,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
@@ -2474,7 +2464,7 @@
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
       <c r="W39" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
@@ -3261,18 +3251,18 @@
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="H57" s="11"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="21"/>
-      <c r="M57" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="11"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
@@ -3695,14 +3685,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="I57:J57"/>
@@ -3719,6 +3701,14 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="R1:S1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3728,8 +3718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD16437-D339-F246-8B06-B9C4339DE817}">
   <dimension ref="B1:Z74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3741,104 +3731,88 @@
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B1" s="9"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="22"/>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="26"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="22"/>
+      <c r="L1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="20"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="26"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="22"/>
+      <c r="R1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="20"/>
       <c r="T1" s="9"/>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="26"/>
+      <c r="V1" s="19"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="22"/>
+      <c r="X1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="20"/>
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
-      <c r="C2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="25"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="23"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="25"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="23"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="25"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="23"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="26"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="25"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="22"/>
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
@@ -3846,7 +3820,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="6"/>
@@ -3854,7 +3828,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="6"/>
@@ -4649,18 +4623,20 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="10"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
@@ -4668,7 +4644,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="6"/>
@@ -4676,7 +4652,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="6"/>
@@ -5471,18 +5447,18 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39" s="11"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="11"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
@@ -5490,7 +5466,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
@@ -5498,7 +5474,7 @@
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
       <c r="W39" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
@@ -6285,18 +6261,18 @@
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="H57" s="11"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="21"/>
-      <c r="M57" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="11"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
@@ -6719,6 +6695,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="C2:D2"/>
@@ -6735,14 +6719,6 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6752,8 +6728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E278166B-B595-DE49-9B82-E1F87626718C}">
   <dimension ref="B1:Z74"/>
   <sheetViews>
-    <sheetView topLeftCell="H43" workbookViewId="0">
-      <selection activeCell="R69" sqref="R69"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6765,104 +6741,104 @@
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B1" s="9"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="22"/>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="26"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="22"/>
+      <c r="L1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="20"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="26"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="22"/>
+      <c r="R1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="20"/>
       <c r="T1" s="9"/>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="26"/>
+      <c r="V1" s="19"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="22"/>
+      <c r="X1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="20"/>
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="23"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="25"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="23"/>
+      <c r="V2" s="26"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="25"/>
+      <c r="Y2" s="22"/>
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
@@ -6870,7 +6846,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="6"/>
@@ -6878,7 +6854,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="6"/>
@@ -7673,18 +7649,18 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="10"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
@@ -7692,7 +7668,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="6"/>
@@ -7700,7 +7676,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="6"/>
@@ -8495,18 +8471,18 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39" s="11"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="11"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
@@ -8514,7 +8490,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
@@ -8522,7 +8498,7 @@
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
       <c r="W39" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
@@ -9309,18 +9285,18 @@
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="H57" s="11"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="21"/>
-      <c r="M57" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="11"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
@@ -9743,6 +9719,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="C2:D2"/>
@@ -9759,14 +9743,6 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9776,8 +9752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6C9CC9-3CD0-454B-9ADB-428F6BD1138C}">
   <dimension ref="B1:Z74"/>
   <sheetViews>
-    <sheetView topLeftCell="F42" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9789,104 +9765,104 @@
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B1" s="9"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="22"/>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="26"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="22"/>
+      <c r="L1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="20"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="26"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="22"/>
+      <c r="R1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="20"/>
       <c r="T1" s="9"/>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="26"/>
+      <c r="V1" s="19"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="22"/>
+      <c r="X1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="20"/>
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="23"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="25"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="23"/>
+      <c r="V2" s="26"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="25"/>
+      <c r="Y2" s="22"/>
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
@@ -9894,7 +9870,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="6"/>
@@ -9902,7 +9878,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="6"/>
@@ -10697,18 +10673,18 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="10"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
@@ -10716,7 +10692,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="6"/>
@@ -10724,7 +10700,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="6"/>
@@ -11519,18 +11495,18 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39" s="11"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="11"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
@@ -11538,7 +11514,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
@@ -11546,7 +11522,7 @@
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
       <c r="W39" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
@@ -12333,18 +12309,18 @@
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="H57" s="11"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="21"/>
-      <c r="M57" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="11"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
@@ -12767,6 +12743,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="C2:D2"/>
@@ -12783,14 +12767,6 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12800,8 +12776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE50696-407E-5345-AE3F-094F9835F380}">
   <dimension ref="B1:Z74"/>
   <sheetViews>
-    <sheetView topLeftCell="H43" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75"/>
+    <sheetView topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12813,104 +12789,104 @@
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B1" s="9"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="22"/>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="26"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="22"/>
+      <c r="L1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="20"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="26"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="22"/>
+      <c r="R1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="20"/>
       <c r="T1" s="9"/>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="26"/>
+      <c r="V1" s="19"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="22"/>
+      <c r="X1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="20"/>
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="23"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="25"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="23"/>
+      <c r="V2" s="26"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="25"/>
+      <c r="Y2" s="22"/>
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
@@ -12918,7 +12894,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="6"/>
@@ -12926,7 +12902,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="6"/>
@@ -13721,18 +13697,18 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="10"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
@@ -13740,7 +13716,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="6"/>
@@ -13748,7 +13724,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="6"/>
@@ -14543,18 +14519,18 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39" s="11"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="11"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
@@ -14562,7 +14538,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
@@ -14570,7 +14546,7 @@
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
       <c r="W39" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
@@ -15357,18 +15333,18 @@
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="H57" s="11"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="21"/>
-      <c r="M57" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="11"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
@@ -15791,6 +15767,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="C2:D2"/>
@@ -15807,14 +15791,6 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15824,8 +15800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851A3BA2-CA54-EC44-9B6C-B552CCE41CB6}">
   <dimension ref="B1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15837,104 +15813,104 @@
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B1" s="9"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="22"/>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="26"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="22"/>
+      <c r="L1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="20"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="26"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="22"/>
+      <c r="R1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="20"/>
       <c r="T1" s="9"/>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="26"/>
+      <c r="V1" s="19"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="22"/>
+      <c r="X1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="20"/>
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="23"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="25"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="23"/>
+      <c r="V2" s="26"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="25"/>
+      <c r="Y2" s="22"/>
       <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
@@ -15942,7 +15918,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="6"/>
@@ -15950,7 +15926,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="6"/>
@@ -16745,18 +16721,18 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="10"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
@@ -16764,7 +16740,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="6"/>
@@ -16772,7 +16748,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="6"/>
@@ -17567,18 +17543,18 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39" s="11"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="11"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
@@ -17586,7 +17562,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
@@ -17594,7 +17570,7 @@
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
       <c r="W39" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
@@ -18381,18 +18357,18 @@
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="H57" s="11"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="21"/>
-      <c r="M57" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="11"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
@@ -18815,6 +18791,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="C2:D2"/>
@@ -18831,14 +18815,6 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
